--- a/assets/PrepareDB.xlsx
+++ b/assets/PrepareDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="theaderflag" sheetId="1" r:id="rId1"/>
@@ -615,19 +615,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,68 +636,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>"INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('0','SALDO AWAL TAHUN');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">"INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('100','PEMBELIAN BARANG');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('150','RETUR PEMBELIAN');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('200','PENJUALAN BARANG');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('250','RETUR PENJUALAN');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('400','TRANSFER STOCK');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('450','PEMUSNAHAN');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO THEADERFLAG(HEADER_FLAG, TRANSNAME) VALUES('500','ADJUSTMENT STOCK');</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1828,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,10 +1881,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1894,11 +1930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
